--- a/Primers and PCRs.xlsx
+++ b/Primers and PCRs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CGGCGACGCCCAACAAGGTCACACTTTTTGATGATTAGGTTTGATGG</t>
+          <t>GCCGTACCTGCTCGACATGTTCATTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to source</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to 770bp_PCR_prod</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -746,35 +746,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mCitrine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAGTGTGACCTTGTTGG</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAATGAACATGTCGAGCAG</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.25</v>
+        <v>55.33</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>73.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450-PC-PAH_1, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to mCitrine, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AGTGTGACCTTGTTGG</t>
+          <t>AATGAACATGTCGAGCAG</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -788,35 +788,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mCitrine</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTGGTTGTACCGAGAC</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCACTCGTTCCC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>54.43</v>
+        <v>54.28</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450-PC-PAH_1, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to mCitrine, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TGGTTGTACCGAGAC</t>
+          <t>TACCACTCGTTCCC</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ATCTTTCGCCGTCTCGGTACAACCAGGACCCTACCAACG</t>
+          <t>TGTCGAGGAGCGGGAACGAGTGGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Cyp450-PC-PAH_1</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to mCitrine</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AGCCAGTCGTACAAACTTGCTAACTTTTTGATGATTAGGTTTGATGG</t>
+          <t>CGGCGACGCCCAACAAGGTCACACTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to CDS_PAHinducible</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to source</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -956,35 +956,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAGTTAGCAAGTTTGTACGA</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAGTGTGACCTTGTTGG</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.4</v>
+        <v>55.25</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>79.2</v>
+        <v>73.8</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to Cyp450-PC-PAH_1, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AGTTAGCAAGTTTGTACGA</t>
+          <t>AGTGTGACCTTGTTGG</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -998,35 +998,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTACAGAGCAAAAGAAATGCT</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTGGTTGTACCGAGAC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>55.9</v>
+        <v>54.43</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to Cyp450-PC-PAH_1, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TACAGAGCAAAAGAAATGCT</t>
+          <t>TGGTTGTACCGAGAC</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TCATCAGCATTTCTTTTGCTCTGTAGGACCCTACCAACG</t>
+          <t>ATCTTTCGCCGTCTCGGTACAACCAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Cyp450s-PC-PAH_3</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GCGCGCGCTGGGCTCGCTGGTCATTTTTTGATGATTAGGTTTGATGG</t>
+          <t>AGCCAGTCGTACAAACTTGCTAACTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to lac1_CDS_laccase</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to CDS_PAHinducible</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1124,35 +1124,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAATGACCAGCGAGC</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>70.2</v>
+        <v>79.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>AATGACCAGCGAGC</t>
+          <t>AGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1166,35 +1166,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTACAGCTCCAAAGTGA</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>73.8</v>
+        <v>81</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TACAGCTCCAAAGTGA</t>
+          <t>TACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GCTTTTCTCTCACTTTGGAGCTGTAGGACCCTACCAACG</t>
+          <t>TCATCAGCATTTCTTTTGCTCTGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to AF414109</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1250,35 +1250,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>is1_B_TtrpC_clavatus</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GCTCTTCTCTCACTTTGGAGCTGTAGGACCCTACCAACG</t>
+          <t>GCGCGCGCTGGGCTCGCTGGTCATTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>57.04</v>
+        <v>56.31</v>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>70.2</v>
+        <v>84.60000000000001</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Laccase_Trametes_versic</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to lac1_CDS_laccase</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>GGACCCTACCAACG</t>
+          <t>TTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1292,35 +1292,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CAACGGAATGTCGGGGGGCAGCATTTTTTGATGATTAGGTTTGATGG</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>56.31</v>
+        <v>53.79</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>84.60000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to source</t>
+          <t>Anneals to AF414109, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TTTTGATGATTAGGTTTGATGG</t>
+          <t>AATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1334,35 +1334,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAATGCTGCCCCCC</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60.94</v>
+        <v>53.01</v>
       </c>
       <c r="F22" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to AF414109, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>AATGCTGCCCCCC</t>
+          <t>TACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1376,35 +1376,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>is1_B_TtrpC_clavatus</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGAAAGTTTTGAGAGCG</t>
+          <t>GCTTTTCTCTCACTTTGGAGCTGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>59.82</v>
+        <v>57.04</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>70.2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to AF414109</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTTTGAGAGCG</t>
+          <t>GGACCCTACCAACG</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CTCTCCGCTCTCAAAACTTTCGGTAGGACCCTACCAACG</t>
+          <t>GCTCTTCTCTCACTTTGGAGCTGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to 100%_Manganese_peroxida</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GAACAGAACGTCAGGGGGAAGAATTTTTTGATGATTAGGTTTGATGG</t>
+          <t>CAACGGAATGTCGGGGGGCAGCATTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1502,35 +1502,35 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAATTCTTCCCCCTGAC</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>73.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>AATTCTTCCCCCTGAC</t>
+          <t>AATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1544,35 +1544,35 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGCAAGTTCGAG</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TACCGCAAGTTCGAG</t>
+          <t>TACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TCCTTCGGTCCTCGAACTTGCGGTAGGACCCTACCAACG</t>
+          <t>CTCTCCGCTCTCAAAACTTTCGGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Manganese_peroxidase_(m</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to 100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GTTCGGGGGACGGCGGGCCTTCATTTTTTGATGATTAGGTTTGATGG</t>
+          <t>GAACAGAACGTCAGGGGGAAGAATTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1670,35 +1670,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AATCCATCAAACCTAATCATCAAAAAATGAAGGCCCGC</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to A._clavatus_h4h3</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>AATGAAGGCCCGC</t>
+          <t>AATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1712,35 +1712,35 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGAAAGTTCAGAGAAG</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 1623bp_PCR_prod</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTCAGAGAAG</t>
+          <t>TACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TTCTTTCTTCTCTGAACTTTCGGTAGGACCCTACCAACG</t>
+          <t>TCCTTCGGTCCTCGAACTTGCGGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Lignin_peroxidase_(LPG1</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1796,35 +1796,35 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AGCCAGTCGTACAAACTTGCTAACTGGATCCTACAAATGTCGT</t>
+          <t>GTTCGGGGGACGGCGGGCCTTCATTTTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>56.24</v>
+        <v>56.31</v>
       </c>
       <c r="F33" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>77.40000000000001</v>
+        <v>84.60000000000001</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to CDS_PAHinducible</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to source</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>GGATCCTACAAATGTCGT</t>
+          <t>TTTTGATGATTAGGTTTGATGG</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1838,35 +1838,35 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CGTCTCAACGACATTTGTAGGATCCAGTTAGCAAGTTTGTACGA</t>
+          <t>AATCCATCAAACCTAATCATCAAAAAATGAAGGCCCGC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.4</v>
+        <v>55.44</v>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
-        <v>79.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to is1_A_TtrpC_brunneo</t>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>AGTTAGCAAGTTTGTACGA</t>
+          <t>AATGAAGGCCCGC</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1880,35 +1880,35 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CCTTTTTTAATTCACATCTATCAAATACAGAGCAAAAGAAATGCT</t>
+          <t>GATGTCGAAAACGTTGGTAGGGTCCTACCGAAAGTTCAGAGAAG</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.9</v>
+        <v>55.53</v>
       </c>
       <c r="F35" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" t="n">
-        <v>81</v>
+        <v>79.2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 903bp_PCR_prod</t>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 1623bp_PCR_prod</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TACAGAGCAAAAGAAATGCT</t>
+          <t>TACCGAAAGTTCAGAGAAG</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1922,35 +1922,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_B_TtrpC_clavatus</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TCATCAGCATTTCTTTTGCTCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>TTCTTTCTTCTCTGAACTTTCGGTAGGACCCTACCAACG</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55.29</v>
+        <v>57.04</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>90</v>
+        <v>70.2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to Cyp450s-PC-PAH_3</t>
+          <t>Anneals to is1_B_TtrpC_clavatus, overlaps to Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>GGACCCTACCAACG</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GCGCGCGCTGGGCTCGCTGGTCATTGGATCCTACAAATGTCGT</t>
+          <t>AGCCAGTCGTACAAACTTGCTAACTGGATCCTACAAATGTCGT</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to lac1_CDS_laccase</t>
+          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to CDS_PAHinducible</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2006,35 +2006,35 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CGTCTCAACGACATTTGTAGGATCCAATGACCAGCGAGC</t>
+          <t>CGTCTCAACGACATTTGTAGGATCCAGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="F38" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G38" t="n">
-        <v>70.2</v>
+        <v>79.2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to is1_A_TtrpC_brunneo</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>AATGACCAGCGAGC</t>
+          <t>AGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -2048,35 +2048,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CCTTTTTTAATTCACATCTATCAAATACAGCTCCAAAGTGA</t>
+          <t>CCTTTTTTAATTCACATCTATCAAATACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8</v>
+        <v>81</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to 903bp_PCR_prod</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 903bp_PCR_prod</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TACAGCTCCAAAGTGA</t>
+          <t>TACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GCTTTTCTCTCACTTTGGAGCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>TCATCAGCATTTCTTTTGCTCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to AF414109</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2132,35 +2132,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GCTCTTCTCTCACTTTGGAGCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>GCGCGCGCTGGGCTCGCTGGTCATTGGATCCTACAAATGTCGT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>55.29</v>
+        <v>56.24</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>90</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to Laccase_Trametes_versic</t>
+          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to lac1_CDS_laccase</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>GGATCCTACAAATGTCGT</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -2174,35 +2174,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CAACGGAATGTCGGGGGGCAGCATTGGATCCTACAAATGTCGT</t>
+          <t>CGTCTCAACGACATTTGTAGGATCCAATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>56.24</v>
+        <v>53.79</v>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G42" t="n">
-        <v>77.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to source</t>
+          <t>Anneals to AF414109, overlaps to is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>GGATCCTACAAATGTCGT</t>
+          <t>AATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2216,35 +2216,35 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CGTCTCAACGACATTTGTAGGATCCAATGCTGCCCCCC</t>
+          <t>CCTTTTTTAATTCACATCTATCAAATACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60.94</v>
+        <v>53.01</v>
       </c>
       <c r="F43" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G43" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to is1_A_TtrpC_brunneo</t>
+          <t>Anneals to AF414109, overlaps to 903bp_PCR_prod</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>AATGCTGCCCCCC</t>
+          <t>TACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2258,35 +2258,35 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CCTTTTTTAATTCACATCTATCAAATACCGAAAGTTTTGAGAGCG</t>
+          <t>GCTTTTCTCTCACTTTGGAGCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.82</v>
+        <v>55.29</v>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to 903bp_PCR_prod</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to AF414109</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTTTGAGAGCG</t>
+          <t>TTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CTCTCCGCTCTCAAAACTTTCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>GCTCTTCTCTCACTTTGGAGCTGTATTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to 100%_Manganese_peroxida</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GAACAGAACGTCAGGGGGAAGAATTGGATCCTACAAATGTCGT</t>
+          <t>CAACGGAATGTCGGGGGGCAGCATTGGATCCTACAAATGTCGT</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2384,35 +2384,35 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CGTCTCAACGACATTTGTAGGATCCAATTCTTCCCCCTGAC</t>
+          <t>CGTCTCAACGACATTTGTAGGATCCAATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="F47" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="n">
-        <v>73.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to is1_A_TtrpC_brunneo</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>AATTCTTCCCCCTGAC</t>
+          <t>AATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -2426,35 +2426,35 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CCTTTTTTAATTCACATCTATCAAATACCGCAAGTTCGAG</t>
+          <t>CCTTTTTTAATTCACATCTATCAAATACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to 903bp_PCR_prod</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to 903bp_PCR_prod</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TACCGCAAGTTCGAG</t>
+          <t>TACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TCCTTCGGTCCTCGAACTTGCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>CTCTCCGCTCTCAAAACTTTCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Anneals to A._clavatus_h4h3, overlaps to Manganese_peroxidase_(m</t>
+          <t>Anneals to A._clavatus_h4h3, overlaps to 100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GTTCGGGGGACGGCGGGCCTTCATTGGATCCTACAAATGTCGT</t>
+          <t>GAACAGAACGTCAGGGGGAAGAATTGGATCCTACAAATGTCGT</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2552,35 +2552,35 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CGTCTCAACGACATTTGTAGGATCCAATGAAGGCCCGC</t>
+          <t>CGTCTCAACGACATTTGTAGGATCCAATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G51" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to is1_A_TtrpC_brunneo</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>AATGAAGGCCCGC</t>
+          <t>AATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -2594,35 +2594,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CCTTTTTTAATTCACATCTATCAAATACCGAAAGTTCAGAGAAG</t>
+          <t>CCTTTTTTAATTCACATCTATCAAATACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 903bp_PCR_prod</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to 903bp_PCR_prod</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTCAGAGAAG</t>
+          <t>TACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TTCTTTCTTCTCTGAACTTTCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
+          <t>TCCTTCGGTCCTCGAACTTGCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2655,15 +2655,183 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>Anneals to A._clavatus_h4h3, overlaps to Manganese_peroxidase_(m</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TTTGATAGATGTGAATTAAAAAAGG</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>P053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>is1_A_TtrpC_brunneo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GTTCGGGGGACGGCGGGCCTTCATTGGATCCTACAAATGTCGT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>56.24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>43</v>
+      </c>
+      <c r="G54" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Anneals to is1_A_TtrpC_brunneo, overlaps to source</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>GGATCCTACAAATGTCGT</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CGTCTCAACGACATTTGTAGGATCCAATGAAGGCCCGC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38</v>
+      </c>
+      <c r="G55" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to is1_A_TtrpC_brunneo</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>AATGAAGGCCCGC</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>P055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CCTTTTTTAATTCACATCTATCAAATACCGAAAGTTCAGAGAAG</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="F56" t="n">
+        <v>44</v>
+      </c>
+      <c r="G56" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 903bp_PCR_prod</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TACCGAAAGTTCAGAGAAG</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>TTCTTTCTTCTCTGAACTTTCGGTATTTGATAGATGTGAATTAAAAAAGG</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="n">
+        <v>90</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>Anneals to A._clavatus_h4h3, overlaps to Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>TTTGATAGATGTGAATTAAAAAAGG</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="J57" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2678,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2959,7 +3127,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CGGCGACGCCCAACAAGGTCACACTCTTAGTGGATTAAGTTTGATG</t>
+          <t>GCGGGTAGTAGTAGTAGTAGTAATTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -2973,7 +3141,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to source</t>
+          <t>Anneals to A._niger_h4h3, overlaps to 746bp_PCR_prod</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2996,35 +3164,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mRFP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAGTGTGACCTTGTTGG</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAATTACTACTACTACTACTACC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.25</v>
+        <v>54.92</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8" t="n">
-        <v>73.8</v>
+        <v>84.60000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450-PC-PAH_1, overlaps to A._niger_h4h3</t>
+          <t>Anneals to mRFP, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AGTGTGACCTTGTTGG</t>
+          <t>AATTACTACTACTACTACTACC</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -3038,35 +3206,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mRFP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTGGTTGTACCGAGAC</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACCGGAGGAGGC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>54.43</v>
+        <v>58.03</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450-PC-PAH_1, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to mRFP, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TGGTTGTACCGAGAC</t>
+          <t>TACCGGAGGAGGC</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -3085,7 +3253,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ATCTTTCGCCGTCTCGGTACAACCAAGATCCCACCAATGTT</t>
+          <t>ACTACTGCAGGAGCCTCCTCCGGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -3099,7 +3267,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to Cyp450-PC-PAH_1</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to mRFP</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3169,7 +3337,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AGCCAGTCGTACAAACTTGCTAACTCTTAGTGGATTAAGTTTGATG</t>
+          <t>CGGCGACGCCCAACAAGGTCACACTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3183,7 +3351,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to CDS_PAHinducible</t>
+          <t>Anneals to A._niger_h4h3, overlaps to source</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3206,35 +3374,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAGTTAGCAAGTTTGTACGA</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAGTGTGACCTTGTTGG</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.4</v>
+        <v>55.25</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>79.2</v>
+        <v>73.8</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to A._niger_h4h3</t>
+          <t>Anneals to Cyp450-PC-PAH_1, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AGTTAGCAAGTTTGTACGA</t>
+          <t>AGTGTGACCTTGTTGG</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -3248,35 +3416,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTACAGAGCAAAAGAAATGCT</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTGGTTGTACCGAGAC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>55.9</v>
+        <v>54.43</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to Cyp450-PC-PAH_1, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TACAGAGCAAAAGAAATGCT</t>
+          <t>TGGTTGTACCGAGAC</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -3295,7 +3463,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TCATCAGCATTTCTTTTGCTCTGTAAGATCCCACCAATGTT</t>
+          <t>ATCTTTCGCCGTCTCGGTACAACCAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3309,7 +3477,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to Cyp450s-PC-PAH_3</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3337,7 +3505,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GCGCGCGCTGGGCTCGCTGGTCATTCTTAGTGGATTAAGTTTGATG</t>
+          <t>AGCCAGTCGTACAAACTTGCTAACTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3351,7 +3519,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to lac1_CDS_laccase</t>
+          <t>Anneals to A._niger_h4h3, overlaps to CDS_PAHinducible</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3374,35 +3542,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAATGACCAGCGAGC</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>70.2</v>
+        <v>79.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to A._niger_h4h3</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>AATGACCAGCGAGC</t>
+          <t>AGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -3416,35 +3584,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTACAGCTCCAAAGTGA</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>73.8</v>
+        <v>81</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TACAGCTCCAAAGTGA</t>
+          <t>TACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -3463,7 +3631,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GCTTTTCTCTCACTTTGGAGCTGTAAGATCCCACCAATGTT</t>
+          <t>TCATCAGCATTTCTTTTGCTCTGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3477,7 +3645,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to AF414109</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3500,35 +3668,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>is2_B_TtrpC_niger</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GCTCTTCTCTCACTTTGGAGCTGTAAGATCCCACCAATGTT</t>
+          <t>GCGCGCGCTGGGCTCGCTGGTCATTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>54.35</v>
+        <v>53.61</v>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8</v>
+        <v>82.8</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to Laccase_Trametes_versic</t>
+          <t>Anneals to A._niger_h4h3, overlaps to lac1_CDS_laccase</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>AGATCCCACCAATGTT</t>
+          <t>CTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3542,35 +3710,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CAACGGAATGTCGGGGGGCAGCATTCTTAGTGGATTAAGTTTGATG</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53.61</v>
+        <v>53.79</v>
       </c>
       <c r="F21" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>82.8</v>
+        <v>70.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to source</t>
+          <t>Anneals to AF414109, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CTTAGTGGATTAAGTTTGATG</t>
+          <t>AATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -3584,35 +3752,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAATGCTGCCCCCC</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60.94</v>
+        <v>53.01</v>
       </c>
       <c r="F22" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to A._niger_h4h3</t>
+          <t>Anneals to AF414109, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>AATGCTGCCCCCC</t>
+          <t>TACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -3626,35 +3794,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>is2_B_TtrpC_niger</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTACCGAAAGTTTTGAGAGCG</t>
+          <t>GCTTTTCTCTCACTTTGGAGCTGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>59.82</v>
+        <v>54.35</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>73.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to AF414109</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTTTGAGAGCG</t>
+          <t>AGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -3673,7 +3841,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CTCTCCGCTCTCAAAACTTTCGGTAAGATCCCACCAATGTT</t>
+          <t>GCTCTTCTCTCACTTTGGAGCTGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3687,7 +3855,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to 100%_Manganese_peroxida</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3715,7 +3883,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GAACAGAACGTCAGGGGGAAGAATTCTTAGTGGATTAAGTTTGATG</t>
+          <t>CAACGGAATGTCGGGGGGCAGCATTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3752,35 +3920,35 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAATTCTTCCCCCTGAC</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>73.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to A._niger_h4h3</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>AATTCTTCCCCCTGAC</t>
+          <t>AATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -3794,35 +3962,35 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTACCGCAAGTTCGAG</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TACCGCAAGTTCGAG</t>
+          <t>TACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -3841,7 +4009,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TCCTTCGGTCCTCGAACTTGCGGTAAGATCCCACCAATGTT</t>
+          <t>CTCTCCGCTCTCAAAACTTTCGGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -3855,7 +4023,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to Manganese_peroxidase_(m</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to 100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3883,7 +4051,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GTTCGGGGGACGGCGGGCCTTCATTCTTAGTGGATTAAGTTTGATG</t>
+          <t>GAACAGAACGTCAGGGGGAAGAATTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -3920,35 +4088,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AATCCATCAAACTTAATCCACTAAGAATGAAGGCCCGC</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to A._niger_h4h3</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>AATGAAGGCCCGC</t>
+          <t>AATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -3962,35 +4130,35 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AATGCCAGCAACATTGGTGGGATCTTACCGAAAGTTCAGAGAAG</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 1630bp_PCR_prod</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTCAGAGAAG</t>
+          <t>TACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -4009,7 +4177,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TTCTTTCTTCTCTGAACTTTCGGTAAGATCCCACCAATGTT</t>
+          <t>TCCTTCGGTCCTCGAACTTGCGGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -4023,7 +4191,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Anneals to is2_B_TtrpC_niger, overlaps to Lignin_peroxidase_(LPG1</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4046,35 +4214,35 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AGCCAGTCGTACAAACTTGCTAACTGGATCCACTTAACGTTAC</t>
+          <t>GTTCGGGGGACGGCGGGCCTTCATTCTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>55.23</v>
+        <v>53.61</v>
       </c>
       <c r="F33" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>77.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to CDS_PAHinducible</t>
+          <t>Anneals to A._niger_h4h3, overlaps to source</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>GGATCCACTTAACGTTAC</t>
+          <t>CTTAGTGGATTAAGTTTGATG</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -4088,35 +4256,35 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GATTTCAGTAACGTTAAGTGGATCCAGTTAGCAAGTTTGTACGA</t>
+          <t>AATCCATCAAACTTAATCCACTAAGAATGAAGGCCCGC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.4</v>
+        <v>55.44</v>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
-        <v>79.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to is2_A_TtrpC_nidulans</t>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to A._niger_h4h3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>AGTTAGCAAGTTTGTACGA</t>
+          <t>AATGAAGGCCCGC</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -4130,35 +4298,35 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GTTTACTTTATAGACAACCTTCACATACAGAGCAAAAGAAATGCT</t>
+          <t>AATGCCAGCAACATTGGTGGGATCTTACCGAAAGTTCAGAGAAG</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.9</v>
+        <v>55.53</v>
       </c>
       <c r="F35" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" t="n">
-        <v>81</v>
+        <v>79.2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 878bp_PCR_prod</t>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 1630bp_PCR_prod</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TACAGAGCAAAAGAAATGCT</t>
+          <t>TACCGAAAGTTCAGAGAAG</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -4172,35 +4340,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_B_TtrpC_niger</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TCATCAGCATTTCTTTTGCTCTGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>TTCTTTCTTCTCTGAACTTTCGGTAAGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.18</v>
+        <v>54.35</v>
       </c>
       <c r="F36" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G36" t="n">
-        <v>81</v>
+        <v>73.8</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to Cyp450s-PC-PAH_3</t>
+          <t>Anneals to is2_B_TtrpC_niger, overlaps to Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TGTGAAGGTTGTCTATAAAG</t>
+          <t>AGATCCCACCAATGTT</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -4219,7 +4387,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GCGCGCGCTGGGCTCGCTGGTCATTGGATCCACTTAACGTTAC</t>
+          <t>AGCCAGTCGTACAAACTTGCTAACTGGATCCACTTAACGTTAC</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -4233,7 +4401,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to lac1_CDS_laccase</t>
+          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to CDS_PAHinducible</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4256,35 +4424,35 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GATTTCAGTAACGTTAAGTGGATCCAATGACCAGCGAGC</t>
+          <t>GATTTCAGTAACGTTAAGTGGATCCAGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="F38" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G38" t="n">
-        <v>70.2</v>
+        <v>79.2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to is2_A_TtrpC_nidulans</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>AATGACCAGCGAGC</t>
+          <t>AGTTAGCAAGTTTGTACGA</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -4298,35 +4466,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GTTTACTTTATAGACAACCTTCACATACAGCTCCAAAGTGA</t>
+          <t>GTTTACTTTATAGACAACCTTCACATACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8</v>
+        <v>81</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Anneals to AF414109, overlaps to 878bp_PCR_prod</t>
+          <t>Anneals to Cyp450s-PC-PAH_3, overlaps to 878bp_PCR_prod</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TACAGCTCCAAAGTGA</t>
+          <t>TACAGAGCAAAAGAAATGCT</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -4345,7 +4513,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GCTTTTCTCTCACTTTGGAGCTGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>TCATCAGCATTTCTTTTGCTCTGTATGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -4359,7 +4527,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to AF414109</t>
+          <t>Anneals to A._niger_h4h3, overlaps to Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4382,35 +4550,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GCTCTTCTCTCACTTTGGAGCTGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>GCGCGCGCTGGGCTCGCTGGTCATTGGATCCACTTAACGTTAC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.18</v>
+        <v>55.23</v>
       </c>
       <c r="F41" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>81</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to Laccase_Trametes_versic</t>
+          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to lac1_CDS_laccase</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TGTGAAGGTTGTCTATAAAG</t>
+          <t>GGATCCACTTAACGTTAC</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -4424,35 +4592,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CAACGGAATGTCGGGGGGCAGCATTGGATCCACTTAACGTTAC</t>
+          <t>GATTTCAGTAACGTTAAGTGGATCCAATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.23</v>
+        <v>53.79</v>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G42" t="n">
-        <v>77.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to source</t>
+          <t>Anneals to AF414109, overlaps to is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>GGATCCACTTAACGTTAC</t>
+          <t>AATGACCAGCGAGC</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -4466,35 +4634,35 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GATTTCAGTAACGTTAAGTGGATCCAATGCTGCCCCCC</t>
+          <t>GTTTACTTTATAGACAACCTTCACATACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60.94</v>
+        <v>53.01</v>
       </c>
       <c r="F43" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G43" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to is2_A_TtrpC_nidulans</t>
+          <t>Anneals to AF414109, overlaps to 878bp_PCR_prod</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>AATGCTGCCCCCC</t>
+          <t>TACAGCTCCAAAGTGA</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -4508,16 +4676,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GTTTACTTTATAGACAACCTTCACATACCGAAAGTTTTGAGAGCG</t>
+          <t>GCTTTTCTCTCACTTTGGAGCTGTATGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.82</v>
+        <v>54.18</v>
       </c>
       <c r="F44" t="n">
         <v>45</v>
@@ -4527,12 +4695,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Anneals to 100%_Manganese_peroxida, overlaps to 878bp_PCR_prod</t>
+          <t>Anneals to A._niger_h4h3, overlaps to AF414109</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTTTGAGAGCG</t>
+          <t>TGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -4555,7 +4723,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CTCTCCGCTCTCAAAACTTTCGGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>GCTCTTCTCTCACTTTGGAGCTGTATGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -4569,7 +4737,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to 100%_Manganese_peroxida</t>
+          <t>Anneals to A._niger_h4h3, overlaps to Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4597,7 +4765,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GAACAGAACGTCAGGGGGAAGAATTGGATCCACTTAACGTTAC</t>
+          <t>CAACGGAATGTCGGGGGGCAGCATTGGATCCACTTAACGTTAC</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -4634,35 +4802,35 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>GATTTCAGTAACGTTAAGTGGATCCAATTCTTCCCCCTGAC</t>
+          <t>GATTTCAGTAACGTTAAGTGGATCCAATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="F47" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="n">
-        <v>73.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to is2_A_TtrpC_nidulans</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>AATTCTTCCCCCTGAC</t>
+          <t>AATGCTGCCCCCC</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -4676,35 +4844,35 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GTTTACTTTATAGACAACCTTCACATACCGCAAGTTCGAG</t>
+          <t>GTTTACTTTATAGACAACCTTCACATACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Anneals to Manganese_peroxidase_(m, overlaps to 878bp_PCR_prod</t>
+          <t>Anneals to 100%_Manganese_peroxida, overlaps to 878bp_PCR_prod</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TACCGCAAGTTCGAG</t>
+          <t>TACCGAAAGTTTTGAGAGCG</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -4723,7 +4891,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TCCTTCGGTCCTCGAACTTGCGGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>CTCTCCGCTCTCAAAACTTTCGGTATGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4737,7 +4905,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Anneals to A._niger_h4h3, overlaps to Manganese_peroxidase_(m</t>
+          <t>Anneals to A._niger_h4h3, overlaps to 100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4765,7 +4933,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GTTCGGGGGACGGCGGGCCTTCATTGGATCCACTTAACGTTAC</t>
+          <t>GAACAGAACGTCAGGGGGAAGAATTGGATCCACTTAACGTTAC</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4802,35 +4970,35 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GATTTCAGTAACGTTAAGTGGATCCAATGAAGGCCCGC</t>
+          <t>GATTTCAGTAACGTTAAGTGGATCCAATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G51" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to is2_A_TtrpC_nidulans</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>AATGAAGGCCCGC</t>
+          <t>AATTCTTCCCCCTGAC</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4844,35 +5012,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GTTTACTTTATAGACAACCTTCACATACCGAAAGTTCAGAGAAG</t>
+          <t>GTTTACTTTATAGACAACCTTCACATACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 878bp_PCR_prod</t>
+          <t>Anneals to Manganese_peroxidase_(m, overlaps to 878bp_PCR_prod</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TACCGAAAGTTCAGAGAAG</t>
+          <t>TACCGCAAGTTCGAG</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4891,7 +5059,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TTCTTTCTTCTCTGAACTTTCGGTATGTGAAGGTTGTCTATAAAG</t>
+          <t>TCCTTCGGTCCTCGAACTTGCGGTATGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4905,15 +5073,183 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>Anneals to A._niger_h4h3, overlaps to Manganese_peroxidase_(m</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TGTGAAGGTTGTCTATAAAG</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>P053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>is2_A_TtrpC_nidulans</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GTTCGGGGGACGGCGGGCCTTCATTGGATCCACTTAACGTTAC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F54" t="n">
+        <v>43</v>
+      </c>
+      <c r="G54" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Anneals to is2_A_TtrpC_nidulans, overlaps to source</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>GGATCCACTTAACGTTAC</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GATTTCAGTAACGTTAAGTGGATCCAATGAAGGCCCGC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38</v>
+      </c>
+      <c r="G55" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to is2_A_TtrpC_nidulans</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>AATGAAGGCCCGC</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>P055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GTTTACTTTATAGACAACCTTCACATACCGAAAGTTCAGAGAAG</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="F56" t="n">
+        <v>44</v>
+      </c>
+      <c r="G56" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Anneals to Lignin_peroxidase_(LPG1, overlaps to 878bp_PCR_prod</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TACCGAAAGTTCAGAGAAG</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>TTCTTTCTTCTCTGAACTTTCGGTATGTGAAGGTTGTCTATAAAG</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="F57" t="n">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n">
+        <v>81</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>Anneals to A._niger_h4h3, overlaps to Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>TGTGAAGGTTGTCTATAAAG</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="J57" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4928,7 +5264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,7 +5408,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mCitrine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5086,10 +5422,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>55.25</v>
+        <v>55.33</v>
       </c>
       <c r="G5" t="n">
-        <v>54.43</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="6">
@@ -5165,7 +5501,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5179,10 +5515,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>55.4</v>
+        <v>55.25</v>
       </c>
       <c r="G8" t="n">
-        <v>55.9</v>
+        <v>54.43</v>
       </c>
     </row>
     <row r="9">
@@ -5258,7 +5594,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5272,10 +5608,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="G11" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="12">
@@ -5320,24 +5656,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Laccase_Trametes_versic</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P016</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P017</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53.79</v>
+        <v>55.29</v>
       </c>
       <c r="G13" t="n">
-        <v>53.01</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="14">
@@ -5351,24 +5687,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>is1_B_TtrpC_clavatus</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P019</t>
+          <t>P020</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P010</t>
+          <t>P021</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>57.04</v>
+        <v>53.79</v>
       </c>
       <c r="G14" t="n">
-        <v>56.86</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="15">
@@ -5382,24 +5718,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_B_TtrpC_clavatus</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P005</t>
+          <t>P022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P010</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>55.29</v>
+        <v>57.04</v>
       </c>
       <c r="G15" t="n">
-        <v>56.31</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="16">
@@ -5413,24 +5749,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>P021</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P022</t>
-        </is>
-      </c>
       <c r="F16" t="n">
-        <v>60.94</v>
+        <v>53.79</v>
       </c>
       <c r="G16" t="n">
-        <v>59.82</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5520,10 +5856,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="G19" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="20">
@@ -5599,7 +5935,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5613,10 +5949,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="G22" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="23">
@@ -5661,12 +5997,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5675,10 +6011,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>55.28</v>
+        <v>55.29</v>
       </c>
       <c r="G24" t="n">
-        <v>56.24</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="25">
@@ -5692,7 +6028,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5706,10 +6042,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>55.4</v>
+        <v>55.44</v>
       </c>
       <c r="G25" t="n">
-        <v>55.9</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="26">
@@ -5723,7 +6059,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_B_TtrpC_clavatus</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5733,14 +6069,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P010</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>55.29</v>
+        <v>57.04</v>
       </c>
       <c r="G26" t="n">
-        <v>56.31</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="27">
@@ -5754,24 +6090,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P036</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>55.29</v>
+        <v>55.28</v>
       </c>
       <c r="G27" t="n">
-        <v>56.31</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="28">
@@ -5785,24 +6121,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P037</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P038</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>55.29</v>
+        <v>55.4</v>
       </c>
       <c r="G28" t="n">
-        <v>56.31</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="29">
@@ -5821,12 +6157,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5852,12 +6188,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5883,12 +6219,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5909,24 +6245,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P036</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>55.28</v>
+        <v>55.29</v>
       </c>
       <c r="G32" t="n">
-        <v>56.24</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="33">
@@ -5940,24 +6276,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P037</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P038</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>53.79</v>
+        <v>55.29</v>
       </c>
       <c r="G33" t="n">
-        <v>53.01</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="34">
@@ -5981,7 +6317,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -6012,7 +6348,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6033,24 +6369,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P040</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>55.29</v>
+        <v>55.28</v>
       </c>
       <c r="G36" t="n">
-        <v>56.31</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="37">
@@ -6064,24 +6400,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P041</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P042</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>55.29</v>
+        <v>53.79</v>
       </c>
       <c r="G37" t="n">
-        <v>56.31</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="38">
@@ -6100,12 +6436,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -6131,12 +6467,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6157,24 +6493,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Laccase_Trametes_versic</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>P037</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>P038</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>53.79</v>
+        <v>55.29</v>
       </c>
       <c r="G40" t="n">
-        <v>53.01</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="41">
@@ -6193,12 +6529,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6224,12 +6560,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6255,12 +6591,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6286,12 +6622,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6312,24 +6648,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P041</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P042</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>55.29</v>
+        <v>53.79</v>
       </c>
       <c r="G45" t="n">
-        <v>56.31</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="46">
@@ -6348,12 +6684,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6374,24 +6710,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>P041</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>55.28</v>
+        <v>55.29</v>
       </c>
       <c r="G47" t="n">
-        <v>56.24</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="48">
@@ -6405,24 +6741,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>P042</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>P043</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>60.94</v>
+        <v>55.29</v>
       </c>
       <c r="G48" t="n">
-        <v>59.82</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="49">
@@ -6446,7 +6782,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -6477,7 +6813,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -6508,7 +6844,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -6539,7 +6875,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -6560,24 +6896,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P044</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P045</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>55.29</v>
+        <v>55.28</v>
       </c>
       <c r="G53" t="n">
-        <v>56.31</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="54">
@@ -6591,24 +6927,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P044</t>
+          <t>P046</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P047</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>55.29</v>
+        <v>60.94</v>
       </c>
       <c r="G54" t="n">
-        <v>56.31</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="55">
@@ -6622,24 +6958,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P048</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>P045</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>55.28</v>
+        <v>55.29</v>
       </c>
       <c r="G55" t="n">
-        <v>56.24</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="56">
@@ -6653,24 +6989,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>P046</t>
+          <t>P048</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>P047</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>56.03</v>
+        <v>55.29</v>
       </c>
       <c r="G56" t="n">
-        <v>54.44</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="57">
@@ -6694,7 +7030,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -6725,7 +7061,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -6756,7 +7092,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -6787,7 +7123,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -6818,7 +7154,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -6839,24 +7175,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A._clavatus_h4h3</t>
+          <t>is1_A_TtrpC_brunneo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>P048</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P049</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>55.29</v>
+        <v>55.28</v>
       </c>
       <c r="G62" t="n">
-        <v>56.31</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="63">
@@ -6870,24 +7206,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>is1_A_TtrpC_brunneo</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P050</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>P049</t>
+          <t>P051</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>55.28</v>
+        <v>56.03</v>
       </c>
       <c r="G63" t="n">
-        <v>56.24</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="64">
@@ -6901,24 +7237,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>A._clavatus_h4h3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>P050</t>
+          <t>P052</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P051</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>55.44</v>
+        <v>55.29</v>
       </c>
       <c r="G64" t="n">
-        <v>55.53</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="65">
@@ -6942,7 +7278,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6973,7 +7309,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7004,7 +7340,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -7035,7 +7371,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7066,7 +7402,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -7097,13 +7433,292 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F70" t="n">
         <v>55.29</v>
       </c>
       <c r="G70" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PCR70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>is1_A_TtrpC_brunneo</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>P053</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="G71" t="n">
+        <v>56.24</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PCR71</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>P055</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PCR72</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G73" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PCR73</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>P011</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G74" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PCR74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>P015</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G75" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PCR75</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G76" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PCR76</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>P024</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G77" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PCR77</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>P028</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G78" t="n">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PCR78</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A._clavatus_h4h3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>P032</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="G79" t="n">
         <v>56.31</v>
       </c>
     </row>
@@ -7118,7 +7733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7262,7 +7877,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cyp450-PC-PAH_1</t>
+          <t>mRFP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7276,10 +7891,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>55.25</v>
+        <v>54.92</v>
       </c>
       <c r="G5" t="n">
-        <v>54.43</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="6">
@@ -7355,7 +7970,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Cyp450-PC-PAH_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7369,10 +7984,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>55.4</v>
+        <v>55.25</v>
       </c>
       <c r="G8" t="n">
-        <v>55.9</v>
+        <v>54.43</v>
       </c>
     </row>
     <row r="9">
@@ -7448,7 +8063,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7462,10 +8077,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>53.79</v>
+        <v>55.4</v>
       </c>
       <c r="G11" t="n">
-        <v>53.01</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="12">
@@ -7510,24 +8125,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Laccase_Trametes_versic</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P016</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P017</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53.79</v>
+        <v>54.18</v>
       </c>
       <c r="G13" t="n">
-        <v>53.01</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="14">
@@ -7541,24 +8156,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>is2_B_TtrpC_niger</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P019</t>
+          <t>P020</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P010</t>
+          <t>P021</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>54.35</v>
+        <v>53.79</v>
       </c>
       <c r="G14" t="n">
-        <v>56.14</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="15">
@@ -7572,24 +8187,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_B_TtrpC_niger</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P005</t>
+          <t>P022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P010</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>54.18</v>
+        <v>54.35</v>
       </c>
       <c r="G15" t="n">
-        <v>53.61</v>
+        <v>56.14</v>
       </c>
     </row>
     <row r="16">
@@ -7603,24 +8218,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>P021</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P022</t>
-        </is>
-      </c>
       <c r="F16" t="n">
-        <v>60.94</v>
+        <v>53.79</v>
       </c>
       <c r="G16" t="n">
-        <v>59.82</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="17">
@@ -7696,7 +8311,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7710,10 +8325,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>56.03</v>
+        <v>60.94</v>
       </c>
       <c r="G19" t="n">
-        <v>54.44</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="20">
@@ -7789,7 +8404,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7803,10 +8418,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>55.44</v>
+        <v>56.03</v>
       </c>
       <c r="G22" t="n">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="23">
@@ -7851,12 +8466,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7865,10 +8480,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>54.53</v>
+        <v>54.18</v>
       </c>
       <c r="G24" t="n">
-        <v>55.23</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="25">
@@ -7882,7 +8497,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cyp450s-PC-PAH_3</t>
+          <t>Lignin_peroxidase_(LPG1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7896,10 +8511,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>55.4</v>
+        <v>55.44</v>
       </c>
       <c r="G25" t="n">
-        <v>55.9</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="26">
@@ -7913,7 +8528,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_B_TtrpC_niger</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7923,14 +8538,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P010</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>54.18</v>
+        <v>54.35</v>
       </c>
       <c r="G26" t="n">
-        <v>53.61</v>
+        <v>56.14</v>
       </c>
     </row>
     <row r="27">
@@ -7944,24 +8559,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P036</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>54.18</v>
+        <v>54.53</v>
       </c>
       <c r="G27" t="n">
-        <v>53.61</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="28">
@@ -7975,24 +8590,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>Cyp450s-PC-PAH_3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P037</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P038</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>54.18</v>
+        <v>55.4</v>
       </c>
       <c r="G28" t="n">
-        <v>53.61</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="29">
@@ -8011,12 +8626,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -8042,12 +8657,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -8073,12 +8688,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>P035</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -8099,24 +8714,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P036</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54.53</v>
+        <v>54.18</v>
       </c>
       <c r="G32" t="n">
-        <v>55.23</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="33">
@@ -8130,24 +8745,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AF414109</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P037</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P038</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>53.79</v>
+        <v>54.18</v>
       </c>
       <c r="G33" t="n">
-        <v>53.01</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="34">
@@ -8171,7 +8786,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -8202,7 +8817,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -8223,24 +8838,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P040</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>54.18</v>
+        <v>54.53</v>
       </c>
       <c r="G36" t="n">
-        <v>53.61</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="37">
@@ -8254,24 +8869,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>AF414109</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P041</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P042</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>54.18</v>
+        <v>53.79</v>
       </c>
       <c r="G37" t="n">
-        <v>53.61</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="38">
@@ -8290,12 +8905,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -8321,12 +8936,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P039</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -8347,24 +8962,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Laccase_Trametes_versic</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>P037</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>P038</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>53.79</v>
+        <v>54.18</v>
       </c>
       <c r="G40" t="n">
-        <v>53.01</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="41">
@@ -8383,12 +8998,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -8414,12 +9029,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -8445,12 +9060,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -8476,12 +9091,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -8502,24 +9117,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>Laccase_Trametes_versic</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P041</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P042</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>54.18</v>
+        <v>53.79</v>
       </c>
       <c r="G45" t="n">
-        <v>53.61</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="46">
@@ -8538,12 +9153,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>P040</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -8564,24 +9179,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>P041</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>54.53</v>
+        <v>54.18</v>
       </c>
       <c r="G47" t="n">
-        <v>55.23</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="48">
@@ -8595,24 +9210,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>100%_Manganese_peroxida</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>P042</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>P043</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>60.94</v>
+        <v>54.18</v>
       </c>
       <c r="G48" t="n">
-        <v>59.82</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="49">
@@ -8636,7 +9251,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -8667,7 +9282,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -8698,7 +9313,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -8729,7 +9344,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -8750,24 +9365,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P044</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P045</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>54.18</v>
+        <v>54.53</v>
       </c>
       <c r="G53" t="n">
-        <v>53.61</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="54">
@@ -8781,24 +9396,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>100%_Manganese_peroxida</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P044</t>
+          <t>P046</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P047</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>54.18</v>
+        <v>60.94</v>
       </c>
       <c r="G54" t="n">
-        <v>53.61</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="55">
@@ -8812,24 +9427,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P048</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>P045</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>54.53</v>
+        <v>54.18</v>
       </c>
       <c r="G55" t="n">
-        <v>55.23</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="56">
@@ -8843,24 +9458,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Manganese_peroxidase_(m</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>P046</t>
+          <t>P048</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>P047</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>56.03</v>
+        <v>54.18</v>
       </c>
       <c r="G56" t="n">
-        <v>54.44</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="57">
@@ -8884,7 +9499,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8915,7 +9530,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8946,7 +9561,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8977,7 +9592,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -9008,7 +9623,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -9029,24 +9644,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A._niger_h4h3</t>
+          <t>is2_A_TtrpC_nidulans</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>P048</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P049</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>54.18</v>
+        <v>54.53</v>
       </c>
       <c r="G62" t="n">
-        <v>53.61</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="63">
@@ -9060,24 +9675,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>is2_A_TtrpC_nidulans</t>
+          <t>Manganese_peroxidase_(m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P050</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>P049</t>
+          <t>P051</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>54.53</v>
+        <v>56.03</v>
       </c>
       <c r="G63" t="n">
-        <v>55.23</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="64">
@@ -9091,24 +9706,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lignin_peroxidase_(LPG1</t>
+          <t>A._niger_h4h3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>P050</t>
+          <t>P052</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P051</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>55.44</v>
+        <v>54.18</v>
       </c>
       <c r="G64" t="n">
-        <v>55.53</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="65">
@@ -9132,7 +9747,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -9163,7 +9778,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>P011</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -9194,7 +9809,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P015</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -9225,7 +9840,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -9256,7 +9871,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>P024</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -9287,13 +9902,292 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>P028</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="F70" t="n">
         <v>54.18</v>
       </c>
       <c r="G70" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PCR70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>is2_A_TtrpC_nidulans</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>P053</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>54.53</v>
+      </c>
+      <c r="G71" t="n">
+        <v>55.23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PCR71</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lignin_peroxidase_(LPG1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>P055</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PCR72</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PCR73</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>P011</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G74" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PCR74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>P015</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G75" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PCR75</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G76" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PCR76</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>P024</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G77" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PCR77</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>P028</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G78" t="n">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PCR78</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A._niger_h4h3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>P032</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="G79" t="n">
         <v>53.61</v>
       </c>
     </row>
